--- a/digitizedData/data33kVsubStation-August-10-2023.xlsx
+++ b/digitizedData/data33kVsubStation-August-10-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susan/Documents/POWER GRID/HW2/digitizedData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB6C860-A56D-EC49-B785-9EDBDF434B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2415712-52FC-3048-B751-55119144825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -440,7 +440,7 @@
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>44755</v>
+        <v>45148</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>12</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>44755.041666666701</v>
+        <v>45148.041666666664</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>12</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>44755.083333333299</v>
+        <v>45148.083333333336</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>12</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>44755.125</v>
+        <v>45148.125</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>12</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>44755.166666666701</v>
+        <v>45148.166666666664</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>12</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>44755.208333333299</v>
+        <v>45148.208333333336</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>12</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>44755.25</v>
+        <v>45148.25</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>44755.291666666701</v>
+        <v>45148.291666666664</v>
       </c>
       <c r="I12" s="13">
         <v>4.9000000000000004</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>44755.333333333401</v>
+        <v>45148.333333333336</v>
       </c>
       <c r="I13" s="13">
         <v>5.4</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>44755.375</v>
+        <v>45148.375</v>
       </c>
       <c r="I14" s="13">
         <v>5.7</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>44755.416666666701</v>
+        <v>45148.416666666664</v>
       </c>
       <c r="I15" s="13">
         <v>5.9</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>44755.458333333401</v>
+        <v>45148.458333333336</v>
       </c>
       <c r="I16" s="13">
         <v>6</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>44755.5</v>
+        <v>45148.5</v>
       </c>
       <c r="I17" s="13">
         <v>6.1</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>44755.541666666701</v>
+        <v>45148.541666666664</v>
       </c>
       <c r="I18" s="13">
         <v>6.2</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
-        <v>44755.583333333401</v>
+        <v>45148.583333333336</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -625,7 +625,7 @@
     </row>
     <row r="20" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
-        <v>44755.625</v>
+        <v>45148.625</v>
       </c>
       <c r="I20" s="13">
         <v>6</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
-        <v>44755.666666666701</v>
+        <v>45148.666666666664</v>
       </c>
       <c r="I21" s="13">
         <v>6</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
-        <v>44755.708333333401</v>
+        <v>45148.708333333336</v>
       </c>
       <c r="I22" s="13">
         <v>6</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
-        <v>44755.750000000102</v>
+        <v>45148.75</v>
       </c>
       <c r="I23" s="13">
         <v>6.45</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7">
-        <v>44755.791666666701</v>
+        <v>45148.791666666664</v>
       </c>
       <c r="I24" s="13">
         <v>6</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
-        <v>44755.833333333401</v>
+        <v>45148.833333333336</v>
       </c>
       <c r="I25" s="13">
         <v>6</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7">
-        <v>44755.875000000102</v>
+        <v>45148.875</v>
       </c>
       <c r="I26" s="13">
         <v>5.75</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>44755.916666666701</v>
+        <v>45148.916666666664</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>44755.958333333401</v>
+        <v>45148.958333333336</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>12</v>
